--- a/ParametricGraph/test.xlsx
+++ b/ParametricGraph/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Прибор 1</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Параметрический граф</t>
+  </si>
+  <si>
+    <t>Максимизация</t>
   </si>
 </sst>
 </file>
@@ -396,17 +399,20 @@
   <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19" ht="30">
+    <row r="1" spans="1:19" ht="60">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>12</v>
@@ -430,6 +436,9 @@
       <c r="B2">
         <f>7*11*2*1*2</f>
         <v>308</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="J2">
         <v>7</v>
